--- a/biology/Zoologie/Cubla_de_Gambie/Cubla_de_Gambie.xlsx
+++ b/biology/Zoologie/Cubla_de_Gambie/Cubla_de_Gambie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryoscopus gambensis
 Le Cubla de Gambie (Dryoscopus gambensis) est une espèce d’oiseaux d'Afrique appartenant à la famille des Malaconotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans presque toute l'Afrique tropicale : en Angola, au Bénin, au Burkina Faso, au Burundi, au Cameroun, en Côte d'Ivoire, en Érythrée, en Éthiopie, au Gabon, en Gambie, au Ghana, en Guinée, en Guinée-Bissau, en Guinée équatoriale, au Kenya, au Liberia, au Mali, en Mauritanie, au Niger, au Nigeria, en Ouganda, en République centrafricaine, en République du Congo, en République démocratique du Congo, au Rwanda, au Sénégal, en Sierra Leone, en Somalie, au Soudan, en Tanzanie, au Tchad et au Togo.
 </t>
